--- a/data/pca/factorExposure/factorExposure_2017-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02324931229944392</v>
+        <v>-0.01231675494024043</v>
       </c>
       <c r="C2">
-        <v>-0.001510114365401198</v>
+        <v>0.03911548077279672</v>
       </c>
       <c r="D2">
-        <v>-0.00365090790742169</v>
+        <v>0.02858234113806628</v>
       </c>
       <c r="E2">
-        <v>-0.02666970167251309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02699484071506947</v>
+      </c>
+      <c r="F2">
+        <v>-0.0349765431563475</v>
+      </c>
+      <c r="G2">
+        <v>0.01428596507136143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0005657553838681631</v>
+        <v>-0.05574734789071495</v>
       </c>
       <c r="C3">
-        <v>-0.06130187471672861</v>
+        <v>0.08049518315137211</v>
       </c>
       <c r="D3">
-        <v>-0.008383933241633487</v>
+        <v>0.01427940166883344</v>
       </c>
       <c r="E3">
-        <v>0.01825619378543895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08095023180417169</v>
+      </c>
+      <c r="F3">
+        <v>-0.05809817893713159</v>
+      </c>
+      <c r="G3">
+        <v>0.07573763878113728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02543628858782405</v>
+        <v>-0.05479769647176714</v>
       </c>
       <c r="C4">
-        <v>-0.02469654724573744</v>
+        <v>0.06160773836370649</v>
       </c>
       <c r="D4">
-        <v>-0.02947240835829467</v>
+        <v>0.0220745363847863</v>
       </c>
       <c r="E4">
-        <v>-0.04427183717822535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0008452333464843357</v>
+      </c>
+      <c r="F4">
+        <v>-0.01668151120232476</v>
+      </c>
+      <c r="G4">
+        <v>0.04095672275980778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01533780454254436</v>
+        <v>-0.03265579434146239</v>
       </c>
       <c r="C6">
-        <v>-0.04392094527492291</v>
+        <v>0.05622473769900957</v>
       </c>
       <c r="D6">
-        <v>-0.02435138805196059</v>
+        <v>0.01597489544364148</v>
       </c>
       <c r="E6">
-        <v>-0.06771451091987118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.004340446281851923</v>
+      </c>
+      <c r="F6">
+        <v>-0.01764444327490179</v>
+      </c>
+      <c r="G6">
+        <v>0.02254838065135481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01292027542596979</v>
+        <v>-0.01836096633760896</v>
       </c>
       <c r="C7">
-        <v>-0.02389259929807546</v>
+        <v>0.03833614821803197</v>
       </c>
       <c r="D7">
-        <v>-0.07126827738434252</v>
+        <v>0.01251677677529441</v>
       </c>
       <c r="E7">
-        <v>0.008069397486021144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01360480009572184</v>
+      </c>
+      <c r="F7">
+        <v>-0.009588746434064382</v>
+      </c>
+      <c r="G7">
+        <v>0.07645167105634609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00427654004683116</v>
+        <v>0.003307425384573624</v>
       </c>
       <c r="C8">
-        <v>0.01966441266153298</v>
+        <v>0.01427084021102152</v>
       </c>
       <c r="D8">
-        <v>-0.01543963652841797</v>
+        <v>0.003847285721391697</v>
       </c>
       <c r="E8">
-        <v>-0.02232611306748527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01663989000295093</v>
+      </c>
+      <c r="F8">
+        <v>-0.02323198669418906</v>
+      </c>
+      <c r="G8">
+        <v>0.02633512533699696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01579795327306637</v>
+        <v>-0.02672700935723717</v>
       </c>
       <c r="C9">
-        <v>-0.02411242637827151</v>
+        <v>0.04259600342125531</v>
       </c>
       <c r="D9">
-        <v>-0.01971108239309367</v>
+        <v>0.01533734187537709</v>
       </c>
       <c r="E9">
-        <v>-0.03154240238462656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.003498224032529058</v>
+      </c>
+      <c r="F9">
+        <v>-0.0190455006485851</v>
+      </c>
+      <c r="G9">
+        <v>0.03229019382633076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01052424436957446</v>
+        <v>-0.08487128820330424</v>
       </c>
       <c r="C10">
-        <v>-0.1028382189177249</v>
+        <v>-0.1856281757219054</v>
       </c>
       <c r="D10">
-        <v>0.040486559270412</v>
+        <v>-0.01866817030697375</v>
       </c>
       <c r="E10">
-        <v>0.1380811447237536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02129703999225396</v>
+      </c>
+      <c r="F10">
+        <v>0.01361232076829875</v>
+      </c>
+      <c r="G10">
+        <v>0.03866803654959143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.000235169227943967</v>
+        <v>-0.03583187975225673</v>
       </c>
       <c r="C11">
-        <v>-0.023812019967376</v>
+        <v>0.05322452384418794</v>
       </c>
       <c r="D11">
-        <v>-0.008127108453686057</v>
+        <v>0.001114783319619777</v>
       </c>
       <c r="E11">
-        <v>-0.04952549273055847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003139892885970549</v>
+      </c>
+      <c r="F11">
+        <v>-0.02356393284183419</v>
+      </c>
+      <c r="G11">
+        <v>0.01298793876114344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.009277319301694198</v>
+        <v>-0.03250126277754033</v>
       </c>
       <c r="C12">
-        <v>-0.02551534388010756</v>
+        <v>0.04412042151191192</v>
       </c>
       <c r="D12">
-        <v>-0.01249229203770994</v>
+        <v>0.005362705821891796</v>
       </c>
       <c r="E12">
-        <v>-0.04201794233528491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.009396087440798775</v>
+      </c>
+      <c r="F12">
+        <v>-0.007152978953394438</v>
+      </c>
+      <c r="G12">
+        <v>0.01758423271058055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01930252064244033</v>
+        <v>-0.01064861952307444</v>
       </c>
       <c r="C13">
-        <v>-0.01678946993615314</v>
+        <v>0.0352612288542833</v>
       </c>
       <c r="D13">
-        <v>-0.003532834467355706</v>
+        <v>0.02468680093379136</v>
       </c>
       <c r="E13">
-        <v>-0.02334831899555505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02086267299701244</v>
+      </c>
+      <c r="F13">
+        <v>-0.02437114580173966</v>
+      </c>
+      <c r="G13">
+        <v>0.02792401236285734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007148881587253758</v>
+        <v>-0.008042382746623458</v>
       </c>
       <c r="C14">
-        <v>-0.01211642100133334</v>
+        <v>0.02514936565981491</v>
       </c>
       <c r="D14">
-        <v>-0.01819262175844367</v>
+        <v>0.008328576849423225</v>
       </c>
       <c r="E14">
-        <v>-0.008907813066139711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00492552595268221</v>
+      </c>
+      <c r="F14">
+        <v>-0.002729610674464111</v>
+      </c>
+      <c r="G14">
+        <v>0.03622027481240324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001061480651074857</v>
+        <v>-0.03203762182905279</v>
       </c>
       <c r="C16">
-        <v>-0.02259630959860265</v>
+        <v>0.04372146341171974</v>
       </c>
       <c r="D16">
-        <v>-0.01461672290964954</v>
+        <v>0.0007763660152505062</v>
       </c>
       <c r="E16">
-        <v>-0.04750002175755817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0009897200111622815</v>
+      </c>
+      <c r="F16">
+        <v>-0.009784871257871199</v>
+      </c>
+      <c r="G16">
+        <v>0.01653514465566346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.009639292496914167</v>
+        <v>-0.03077341471210396</v>
       </c>
       <c r="C19">
-        <v>-0.01992288818549801</v>
+        <v>0.05613408931142798</v>
       </c>
       <c r="D19">
-        <v>-0.01509223207368676</v>
+        <v>0.0152087892726826</v>
       </c>
       <c r="E19">
-        <v>-0.04711663070175397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0393441359548664</v>
+      </c>
+      <c r="F19">
+        <v>-0.03812248695128154</v>
+      </c>
+      <c r="G19">
+        <v>0.03598414620551659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007641366257343179</v>
+        <v>-0.0099936171647738</v>
       </c>
       <c r="C20">
-        <v>-0.004011366776510423</v>
+        <v>0.03530760312322922</v>
       </c>
       <c r="D20">
-        <v>-0.00573722418005444</v>
+        <v>0.01308320149110403</v>
       </c>
       <c r="E20">
-        <v>-0.003558563361116367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01974844281214581</v>
+      </c>
+      <c r="F20">
+        <v>-0.007026856301710751</v>
+      </c>
+      <c r="G20">
+        <v>0.0288251300083051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01173640189246112</v>
+        <v>-0.0124235788980126</v>
       </c>
       <c r="C21">
-        <v>-0.03682441573108155</v>
+        <v>0.03430539960951197</v>
       </c>
       <c r="D21">
-        <v>-0.02888258364566318</v>
+        <v>0.01595601683524545</v>
       </c>
       <c r="E21">
-        <v>-0.02181573423236452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02748854771405106</v>
+      </c>
+      <c r="F21">
+        <v>-0.02000181942179981</v>
+      </c>
+      <c r="G21">
+        <v>0.05066395353334244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003085996719154432</v>
+        <v>-0.0264244946526437</v>
       </c>
       <c r="C24">
-        <v>-0.02117583768831583</v>
+        <v>0.04665199538889638</v>
       </c>
       <c r="D24">
-        <v>-0.01181539414296079</v>
+        <v>0.006189904762862818</v>
       </c>
       <c r="E24">
-        <v>-0.04199951538250325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006808773593148947</v>
+      </c>
+      <c r="F24">
+        <v>-0.01934465873175016</v>
+      </c>
+      <c r="G24">
+        <v>0.01581582735679508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01099692765979587</v>
+        <v>-0.0432058991000365</v>
       </c>
       <c r="C25">
-        <v>-0.03265734763448488</v>
+        <v>0.05271424381838079</v>
       </c>
       <c r="D25">
-        <v>-0.01018749537896038</v>
+        <v>0.009966522533964968</v>
       </c>
       <c r="E25">
-        <v>-0.04405930494357348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01364941717884593</v>
+      </c>
+      <c r="F25">
+        <v>-0.01389065584577427</v>
+      </c>
+      <c r="G25">
+        <v>0.02270401054645911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02057830324214352</v>
+        <v>-0.006502004620276444</v>
       </c>
       <c r="C26">
-        <v>-0.001979263970310751</v>
+        <v>0.008582722378416412</v>
       </c>
       <c r="D26">
-        <v>-0.009838498870437142</v>
+        <v>0.02389195857390661</v>
       </c>
       <c r="E26">
-        <v>0.0002495088132075704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.008933832362517083</v>
+      </c>
+      <c r="F26">
+        <v>-0.006718044566879773</v>
+      </c>
+      <c r="G26">
+        <v>0.027083328304447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02263217396760855</v>
+        <v>-0.1085076587620779</v>
       </c>
       <c r="C28">
-        <v>-0.1528383403203746</v>
+        <v>-0.227128022052277</v>
       </c>
       <c r="D28">
-        <v>0.06286758651493443</v>
+        <v>-0.01019245406091683</v>
       </c>
       <c r="E28">
-        <v>0.2142964731694223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008574945480641456</v>
+      </c>
+      <c r="F28">
+        <v>0.007002326362979674</v>
+      </c>
+      <c r="G28">
+        <v>0.0533966851110762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006662317561064605</v>
+        <v>-0.01231298348848052</v>
       </c>
       <c r="C29">
-        <v>-0.01550494809234359</v>
+        <v>0.01945142952834673</v>
       </c>
       <c r="D29">
-        <v>-0.01329253072462384</v>
+        <v>0.007138011491877487</v>
       </c>
       <c r="E29">
-        <v>-0.007760902975738311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.002714040839609399</v>
+      </c>
+      <c r="F29">
+        <v>0.006565903277516937</v>
+      </c>
+      <c r="G29">
+        <v>0.03052888917661135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03348324083497187</v>
+        <v>-0.03937700289938414</v>
       </c>
       <c r="C30">
-        <v>-0.02927732162199229</v>
+        <v>0.07138790790574069</v>
       </c>
       <c r="D30">
-        <v>0.03043264090997205</v>
+        <v>0.02681179418407933</v>
       </c>
       <c r="E30">
-        <v>-0.0895596431792177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01912673234796149</v>
+      </c>
+      <c r="F30">
+        <v>-0.04594478874417449</v>
+      </c>
+      <c r="G30">
+        <v>-0.005688335682491232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.002994465736939902</v>
+        <v>-0.0427295335170427</v>
       </c>
       <c r="C31">
-        <v>-0.04471290601101217</v>
+        <v>0.03105409128789984</v>
       </c>
       <c r="D31">
-        <v>-0.02095516846840607</v>
+        <v>0.003027886194800563</v>
       </c>
       <c r="E31">
-        <v>-0.02619478229367884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01189741500645143</v>
+      </c>
+      <c r="F31">
+        <v>0.03588466520755591</v>
+      </c>
+      <c r="G31">
+        <v>0.02586975259710424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.009119245944257726</v>
+        <v>-0.003178663643793487</v>
       </c>
       <c r="C32">
-        <v>0.0002495003983727259</v>
+        <v>0.03516155790299928</v>
       </c>
       <c r="D32">
-        <v>-0.03228569357099412</v>
+        <v>-0.004653591079352552</v>
       </c>
       <c r="E32">
-        <v>-0.02258929356958659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01224144035847993</v>
+      </c>
+      <c r="F32">
+        <v>-0.07797845547498408</v>
+      </c>
+      <c r="G32">
+        <v>0.05360648471956609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.00819105103667995</v>
+        <v>-0.02894445565595941</v>
       </c>
       <c r="C33">
-        <v>-0.02850805485053446</v>
+        <v>0.05126221727525104</v>
       </c>
       <c r="D33">
-        <v>0.009235809286228495</v>
+        <v>0.01385124914301815</v>
       </c>
       <c r="E33">
-        <v>-0.04330544212919453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01768922198993132</v>
+      </c>
+      <c r="F33">
+        <v>-0.02524431352536095</v>
+      </c>
+      <c r="G33">
+        <v>0.02237723188468169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005658217670984178</v>
+        <v>-0.0467716724171959</v>
       </c>
       <c r="C34">
-        <v>-0.02619255104186709</v>
+        <v>0.05387815394865071</v>
       </c>
       <c r="D34">
-        <v>-0.02154336129980817</v>
+        <v>-0.006227190980977414</v>
       </c>
       <c r="E34">
-        <v>-0.04339769215261315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01281552532909262</v>
+      </c>
+      <c r="F34">
+        <v>-0.0209573999938913</v>
+      </c>
+      <c r="G34">
+        <v>0.02635515376613823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.009862342811100216</v>
+        <v>-0.01060443100647266</v>
       </c>
       <c r="C36">
-        <v>-0.0164270323716917</v>
+        <v>0.006015998966222774</v>
       </c>
       <c r="D36">
-        <v>-0.005401176484472842</v>
+        <v>0.01111521214038014</v>
       </c>
       <c r="E36">
-        <v>-0.00333081491756192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.000955252443307607</v>
+      </c>
+      <c r="F36">
+        <v>0.0003937251399196769</v>
+      </c>
+      <c r="G36">
+        <v>0.0185946969319134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005673441967933286</v>
+        <v>-0.0336251009788071</v>
       </c>
       <c r="C38">
-        <v>-0.0233523828020611</v>
+        <v>0.0222275902914531</v>
       </c>
       <c r="D38">
-        <v>-0.006533304974033337</v>
+        <v>-0.008179675153988616</v>
       </c>
       <c r="E38">
-        <v>-0.02344597646276012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003486847406510529</v>
+      </c>
+      <c r="F38">
+        <v>-0.003611497467923435</v>
+      </c>
+      <c r="G38">
+        <v>0.02915074365181983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.008256356193908443</v>
+        <v>-0.03178377551556467</v>
       </c>
       <c r="C39">
-        <v>-0.009337410907905576</v>
+        <v>0.08351316786512127</v>
       </c>
       <c r="D39">
-        <v>-0.02355906693705235</v>
+        <v>0.01149824568486919</v>
       </c>
       <c r="E39">
-        <v>-0.06930136528024006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.008799128828043686</v>
+      </c>
+      <c r="F39">
+        <v>-0.03956969483211904</v>
+      </c>
+      <c r="G39">
+        <v>0.01829128902189217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.007852176501725964</v>
+        <v>-0.01941830118400701</v>
       </c>
       <c r="C40">
-        <v>-0.02103306506382985</v>
+        <v>0.03190548413388501</v>
       </c>
       <c r="D40">
-        <v>-0.008344828835844066</v>
+        <v>0.0128525710695967</v>
       </c>
       <c r="E40">
-        <v>-0.04681278610450759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01469966274062553</v>
+      </c>
+      <c r="F40">
+        <v>-0.02267266441851291</v>
+      </c>
+      <c r="G40">
+        <v>0.01957526021321459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.003789006854032889</v>
+        <v>-0.01229780384346731</v>
       </c>
       <c r="C41">
-        <v>-0.01580043123029604</v>
+        <v>-0.002035857818582451</v>
       </c>
       <c r="D41">
-        <v>0.001097511540489065</v>
+        <v>0.003364470872071472</v>
       </c>
       <c r="E41">
-        <v>0.005174127089516725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002802117468337524</v>
+      </c>
+      <c r="F41">
+        <v>-0.0002420415506781965</v>
+      </c>
+      <c r="G41">
+        <v>0.01249711260139321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08559810582371405</v>
+        <v>-0.03513659948581503</v>
       </c>
       <c r="C42">
-        <v>-0.1047078227352635</v>
+        <v>0.05453304275962173</v>
       </c>
       <c r="D42">
-        <v>0.07255429200628614</v>
+        <v>0.1022535565354987</v>
       </c>
       <c r="E42">
-        <v>-0.1658243495431845</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.06244484282910429</v>
+      </c>
+      <c r="F42">
+        <v>0.1126240152459472</v>
+      </c>
+      <c r="G42">
+        <v>-0.207913207178527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009527389822419517</v>
+        <v>-0.02731831806117308</v>
       </c>
       <c r="C43">
-        <v>-0.01656728317411781</v>
+        <v>0.007136530948069423</v>
       </c>
       <c r="D43">
-        <v>0.0009279799955318728</v>
+        <v>0.003524506440567279</v>
       </c>
       <c r="E43">
-        <v>0.0008032838914544057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0007629113788312825</v>
+      </c>
+      <c r="F43">
+        <v>-0.0005395706260800543</v>
+      </c>
+      <c r="G43">
+        <v>0.01638754817897863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002501061088733494</v>
+        <v>-0.01654770189558631</v>
       </c>
       <c r="C44">
-        <v>-0.002947943924159453</v>
+        <v>0.04850475201584915</v>
       </c>
       <c r="D44">
-        <v>-0.01786624930276372</v>
+        <v>0.00644685878099544</v>
       </c>
       <c r="E44">
-        <v>-0.01829328533230143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01775619965131598</v>
+      </c>
+      <c r="F44">
+        <v>-0.02558187536165683</v>
+      </c>
+      <c r="G44">
+        <v>0.03392389449590509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.00905234264952735</v>
+        <v>-0.002467641455720441</v>
       </c>
       <c r="C46">
-        <v>-0.005610894674952412</v>
+        <v>0.01730213274902421</v>
       </c>
       <c r="D46">
-        <v>-0.01034515452463877</v>
+        <v>0.01156698920569289</v>
       </c>
       <c r="E46">
-        <v>-0.02512278771485995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003175477911264792</v>
+      </c>
+      <c r="F46">
+        <v>0.00846342943689817</v>
+      </c>
+      <c r="G46">
+        <v>0.02218247850441954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001905914056628161</v>
+        <v>-0.0724969468566732</v>
       </c>
       <c r="C47">
-        <v>-0.06645911682002459</v>
+        <v>0.06204335671090223</v>
       </c>
       <c r="D47">
-        <v>-0.009157107151984995</v>
+        <v>-0.00520100536671926</v>
       </c>
       <c r="E47">
-        <v>-0.04140851280505581</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01471023165819673</v>
+      </c>
+      <c r="F47">
+        <v>0.0599519579651603</v>
+      </c>
+      <c r="G47">
+        <v>0.02154828664231295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0009752986406171904</v>
+        <v>-0.01826586253682851</v>
       </c>
       <c r="C48">
-        <v>-0.02879849722719323</v>
+        <v>0.01022628584417044</v>
       </c>
       <c r="D48">
-        <v>-0.007160162659821336</v>
+        <v>0.0009112730973681751</v>
       </c>
       <c r="E48">
-        <v>-0.01029910739894153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002833289753719096</v>
+      </c>
+      <c r="F48">
+        <v>0.01412471418162465</v>
+      </c>
+      <c r="G48">
+        <v>0.02487531793217029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0007843227432926434</v>
+        <v>-0.07711816703338509</v>
       </c>
       <c r="C50">
-        <v>-0.06526156801234069</v>
+        <v>0.06319701776204904</v>
       </c>
       <c r="D50">
-        <v>-0.03932245267364464</v>
+        <v>-0.00409918276450334</v>
       </c>
       <c r="E50">
-        <v>-0.04765154179114485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01368726346233257</v>
+      </c>
+      <c r="F50">
+        <v>0.05462538113401037</v>
+      </c>
+      <c r="G50">
+        <v>0.04308936171848704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01137516986413129</v>
+        <v>-0.01324714277392148</v>
       </c>
       <c r="C51">
-        <v>-0.008317831508665129</v>
+        <v>0.02763992003800012</v>
       </c>
       <c r="D51">
-        <v>-0.01191124802773073</v>
+        <v>0.008749596939966769</v>
       </c>
       <c r="E51">
-        <v>0.01246639405198134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.005228739045862408</v>
+      </c>
+      <c r="F51">
+        <v>-0.03140405122375962</v>
+      </c>
+      <c r="G51">
+        <v>0.04534750634276283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.005751950853249775</v>
+        <v>-0.09690777317883524</v>
       </c>
       <c r="C53">
-        <v>-0.084083145613305</v>
+        <v>0.07405094076898901</v>
       </c>
       <c r="D53">
-        <v>-0.03068019917328496</v>
+        <v>-0.006402414523341464</v>
       </c>
       <c r="E53">
-        <v>-0.07180336249664236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04070612021784423</v>
+      </c>
+      <c r="F53">
+        <v>0.06626033862252347</v>
+      </c>
+      <c r="G53">
+        <v>0.02273655539664686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.004557549722512597</v>
+        <v>-0.02857776734501426</v>
       </c>
       <c r="C54">
-        <v>-0.03144088251842801</v>
+        <v>0.004563471801094251</v>
       </c>
       <c r="D54">
-        <v>-0.009351099883025245</v>
+        <v>-0.004261749387357722</v>
       </c>
       <c r="E54">
-        <v>-0.001448801270864023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002916450911389359</v>
+      </c>
+      <c r="F54">
+        <v>0.00266818559823049</v>
+      </c>
+      <c r="G54">
+        <v>0.02940574933070464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00267809278070126</v>
+        <v>-0.07287886661426993</v>
       </c>
       <c r="C55">
-        <v>-0.06576164106205114</v>
+        <v>0.06961350185546265</v>
       </c>
       <c r="D55">
-        <v>-0.02095743091227227</v>
+        <v>-0.00503203761250704</v>
       </c>
       <c r="E55">
-        <v>-0.07898046120302217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02716713389945834</v>
+      </c>
+      <c r="F55">
+        <v>0.06219492583336677</v>
+      </c>
+      <c r="G55">
+        <v>0.01077567098846112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002708746138292081</v>
+        <v>-0.1483760693214164</v>
       </c>
       <c r="C56">
-        <v>-0.1264477301793012</v>
+        <v>0.09708433674473772</v>
       </c>
       <c r="D56">
-        <v>-0.02389190928335041</v>
+        <v>-0.01537804236391636</v>
       </c>
       <c r="E56">
-        <v>-0.09585574365992298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04485358398015798</v>
+      </c>
+      <c r="F56">
+        <v>0.1056642953718493</v>
+      </c>
+      <c r="G56">
+        <v>0.0002567673922930889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02513640199197112</v>
+        <v>-0.01304504869280752</v>
       </c>
       <c r="C57">
-        <v>-0.03161509118485171</v>
+        <v>0.01176500532650666</v>
       </c>
       <c r="D57">
-        <v>-0.003017219093900255</v>
+        <v>0.02364714047935468</v>
       </c>
       <c r="E57">
-        <v>-0.03065865095090351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02818902835485246</v>
+      </c>
+      <c r="F57">
+        <v>-0.01551415680549572</v>
+      </c>
+      <c r="G57">
+        <v>0.02261386678640277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.00314757655047496</v>
+        <v>-0.07137781658696483</v>
       </c>
       <c r="C58">
-        <v>-0.1290465253719772</v>
+        <v>0.07612366357137144</v>
       </c>
       <c r="D58">
-        <v>0.09472695397537141</v>
+        <v>0.02099849276558608</v>
       </c>
       <c r="E58">
-        <v>-0.1521115291368002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9443654996349453</v>
+      </c>
+      <c r="F58">
+        <v>0.2256350042310154</v>
+      </c>
+      <c r="G58">
+        <v>0.06280755173571233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02778435446098394</v>
+        <v>-0.1477240390146053</v>
       </c>
       <c r="C59">
-        <v>-0.1565616291006102</v>
+        <v>-0.2173679255230247</v>
       </c>
       <c r="D59">
-        <v>0.08279719796478398</v>
+        <v>-0.01744001324663869</v>
       </c>
       <c r="E59">
-        <v>0.1791879524705</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01685615401527036</v>
+      </c>
+      <c r="F59">
+        <v>-0.01029950516882654</v>
+      </c>
+      <c r="G59">
+        <v>0.01730560842724878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02869184478198228</v>
+        <v>-0.2966009640815446</v>
       </c>
       <c r="C60">
-        <v>-0.2032671480146768</v>
+        <v>0.07977796884284263</v>
       </c>
       <c r="D60">
-        <v>0.03664370733199624</v>
+        <v>0.006348558992051554</v>
       </c>
       <c r="E60">
-        <v>-0.06693104807659678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02278812987502689</v>
+      </c>
+      <c r="F60">
+        <v>-0.3807451544772729</v>
+      </c>
+      <c r="G60">
+        <v>-0.06854467563381898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001592295265247592</v>
+        <v>-0.03246967950904651</v>
       </c>
       <c r="C61">
-        <v>-0.02603729497062754</v>
+        <v>0.06367287146487455</v>
       </c>
       <c r="D61">
-        <v>-0.01566721149129548</v>
+        <v>0.00480011480745358</v>
       </c>
       <c r="E61">
-        <v>-0.06358640762950298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.005164536054236672</v>
+      </c>
+      <c r="F61">
+        <v>-0.02400955482841388</v>
+      </c>
+      <c r="G61">
+        <v>0.01916090911655802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007207575353083226</v>
+        <v>-0.01467910626116654</v>
       </c>
       <c r="C63">
-        <v>-0.01520466418601077</v>
+        <v>0.02606172965449391</v>
       </c>
       <c r="D63">
-        <v>-0.01129348718241364</v>
+        <v>0.007605007571505008</v>
       </c>
       <c r="E63">
-        <v>-0.02095148877621776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01287979340680465</v>
+      </c>
+      <c r="F63">
+        <v>0.01182024619847097</v>
+      </c>
+      <c r="G63">
+        <v>0.02795828715951386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007480824686326696</v>
+        <v>-0.04631396522842147</v>
       </c>
       <c r="C64">
-        <v>-0.04010835909246265</v>
+        <v>0.03499956365853434</v>
       </c>
       <c r="D64">
-        <v>-0.01145379505076712</v>
+        <v>0.004458404092089684</v>
       </c>
       <c r="E64">
-        <v>-0.04851034839710751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.009878729581571526</v>
+      </c>
+      <c r="F64">
+        <v>-0.01405842123349379</v>
+      </c>
+      <c r="G64">
+        <v>0.01757357531305739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01790027243586169</v>
+        <v>-0.08126948517025485</v>
       </c>
       <c r="C65">
-        <v>-0.05165267182982268</v>
+        <v>0.06648100383760724</v>
       </c>
       <c r="D65">
-        <v>-0.02491385124224084</v>
+        <v>0.01481314111524371</v>
       </c>
       <c r="E65">
-        <v>-0.07281038313853032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004050384861639016</v>
+      </c>
+      <c r="F65">
+        <v>-0.0394302454581236</v>
+      </c>
+      <c r="G65">
+        <v>0.01019849213632971</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006951859923467575</v>
+        <v>-0.05412950241028402</v>
       </c>
       <c r="C66">
-        <v>-0.02801402309710407</v>
+        <v>0.1163264694693842</v>
       </c>
       <c r="D66">
-        <v>-0.01192689078167155</v>
+        <v>0.01051106404829837</v>
       </c>
       <c r="E66">
-        <v>-0.09815095482595479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01092161412878433</v>
+      </c>
+      <c r="F66">
+        <v>-0.04564618231446668</v>
+      </c>
+      <c r="G66">
+        <v>0.00793542210214848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002352100788174488</v>
+        <v>-0.05845801638004716</v>
       </c>
       <c r="C67">
-        <v>-0.04124255550326592</v>
+        <v>0.02494060994194025</v>
       </c>
       <c r="D67">
-        <v>-0.004085608598839259</v>
+        <v>-0.00694096581436903</v>
       </c>
       <c r="E67">
-        <v>-0.02577263035811745</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003284724425482366</v>
+      </c>
+      <c r="F67">
+        <v>-0.001480335148439789</v>
+      </c>
+      <c r="G67">
+        <v>0.02903005408371686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04439957542562486</v>
+        <v>-0.1254745466260103</v>
       </c>
       <c r="C68">
-        <v>-0.1416062376816911</v>
+        <v>-0.2717844861422715</v>
       </c>
       <c r="D68">
-        <v>0.07796711531440011</v>
+        <v>0.001221961526813797</v>
       </c>
       <c r="E68">
-        <v>0.1965678208430176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02053273216489714</v>
+      </c>
+      <c r="F68">
+        <v>0.01325118770032686</v>
+      </c>
+      <c r="G68">
+        <v>0.02053427008665931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001448201603864092</v>
+        <v>-0.07638369105867004</v>
       </c>
       <c r="C69">
-        <v>-0.05578629480446701</v>
+        <v>0.05956327870376613</v>
       </c>
       <c r="D69">
-        <v>-0.01183623728391102</v>
+        <v>-0.009480095985531761</v>
       </c>
       <c r="E69">
-        <v>-0.04409239040525431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02965688143608443</v>
+      </c>
+      <c r="F69">
+        <v>0.03934414589987206</v>
+      </c>
+      <c r="G69">
+        <v>0.01858781867614184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03098043467946213</v>
+        <v>-0.1244225047609738</v>
       </c>
       <c r="C71">
-        <v>-0.1282445725402721</v>
+        <v>-0.2294472308677515</v>
       </c>
       <c r="D71">
-        <v>0.05888923643047688</v>
+        <v>-0.007756092613216201</v>
       </c>
       <c r="E71">
-        <v>0.1865749151710946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02676678507707895</v>
+      </c>
+      <c r="F71">
+        <v>0.01858687190988365</v>
+      </c>
+      <c r="G71">
+        <v>0.03682079969362707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001197289350477303</v>
+        <v>-0.08788007875092328</v>
       </c>
       <c r="C72">
-        <v>-0.1184432932055258</v>
+        <v>0.08009963977365141</v>
       </c>
       <c r="D72">
-        <v>-0.02272696725194597</v>
+        <v>-0.009741892591132218</v>
       </c>
       <c r="E72">
-        <v>-0.1603114074302087</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01484123807733848</v>
+      </c>
+      <c r="F72">
+        <v>-0.03517544012898594</v>
+      </c>
+      <c r="G72">
+        <v>-0.00539235472121501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03977255958621042</v>
+        <v>-0.4106038795725679</v>
       </c>
       <c r="C73">
-        <v>-0.234995369086425</v>
+        <v>0.09638123825843166</v>
       </c>
       <c r="D73">
-        <v>0.07397950356539011</v>
+        <v>0.009731602222716461</v>
       </c>
       <c r="E73">
-        <v>-0.1395826421921759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0641598986316555</v>
+      </c>
+      <c r="F73">
+        <v>-0.5344256462276412</v>
+      </c>
+      <c r="G73">
+        <v>-0.1300463740872276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001322498748109878</v>
+        <v>-0.1185044027154351</v>
       </c>
       <c r="C74">
-        <v>-0.1178998867459667</v>
+        <v>0.1124818648663298</v>
       </c>
       <c r="D74">
-        <v>-0.01616122701799571</v>
+        <v>-0.01143151549794527</v>
       </c>
       <c r="E74">
-        <v>-0.103126699160141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03759878312945115</v>
+      </c>
+      <c r="F74">
+        <v>0.07265416598523894</v>
+      </c>
+      <c r="G74">
+        <v>0.01892698093212172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.007015965038097122</v>
+        <v>-0.2642352138576529</v>
       </c>
       <c r="C75">
-        <v>-0.2329608348595107</v>
+        <v>0.1379175466562898</v>
       </c>
       <c r="D75">
-        <v>-0.01969794905665479</v>
+        <v>-0.03320356011984078</v>
       </c>
       <c r="E75">
-        <v>-0.1636923166348637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07544191862659262</v>
+      </c>
+      <c r="F75">
+        <v>0.2194120133751596</v>
+      </c>
+      <c r="G75">
+        <v>-0.02811657130136946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.002729843775175505</v>
+        <v>-0.1422959910668992</v>
       </c>
       <c r="C76">
-        <v>-0.2122051546245349</v>
+        <v>0.1178540724487386</v>
       </c>
       <c r="D76">
-        <v>-0.04386728936247743</v>
+        <v>-0.0233534478967784</v>
       </c>
       <c r="E76">
-        <v>-0.1660619827296686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07135608273901167</v>
+      </c>
+      <c r="F76">
+        <v>0.1397128940844406</v>
+      </c>
+      <c r="G76">
+        <v>0.005811558694554277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.009117729204875039</v>
+        <v>-0.06253823005263336</v>
       </c>
       <c r="C77">
-        <v>-0.02666477389598493</v>
+        <v>0.06108169334011666</v>
       </c>
       <c r="D77">
-        <v>-0.0164795573075164</v>
+        <v>0.01198320581463507</v>
       </c>
       <c r="E77">
-        <v>-0.05891116829510021</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04050073998870041</v>
+      </c>
+      <c r="F77">
+        <v>-0.02064473431455247</v>
+      </c>
+      <c r="G77">
+        <v>0.04358917570459572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004866031798962914</v>
+        <v>-0.04097854129872991</v>
       </c>
       <c r="C78">
-        <v>-0.02348618372943734</v>
+        <v>0.0512877389688225</v>
       </c>
       <c r="D78">
-        <v>-0.0181085078397651</v>
+        <v>0.00505357695489081</v>
       </c>
       <c r="E78">
-        <v>-0.05121388682638503</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01624692040506981</v>
+      </c>
+      <c r="F78">
+        <v>-0.04137007049120927</v>
+      </c>
+      <c r="G78">
+        <v>0.03059440537142742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01658692657608922</v>
+        <v>-0.06462235669412997</v>
       </c>
       <c r="C80">
-        <v>-0.2033275579691297</v>
+        <v>0.07219214555557482</v>
       </c>
       <c r="D80">
-        <v>-0.9194169192693383</v>
+        <v>0.01261209630464231</v>
       </c>
       <c r="E80">
-        <v>0.2504799375456291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.07544103315283787</v>
+      </c>
+      <c r="F80">
+        <v>-0.03525204417429752</v>
+      </c>
+      <c r="G80">
+        <v>0.9164837170887643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.006464137803090764</v>
+        <v>-0.147574644166192</v>
       </c>
       <c r="C81">
-        <v>-0.1745236695840023</v>
+        <v>0.09004062302572093</v>
       </c>
       <c r="D81">
-        <v>-0.02844551076014162</v>
+        <v>-0.01717466091357084</v>
       </c>
       <c r="E81">
-        <v>-0.1223208127840326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04720143511727051</v>
+      </c>
+      <c r="F81">
+        <v>0.1385814703773939</v>
+      </c>
+      <c r="G81">
+        <v>0.01191668724519282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0440565906998591</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03376795809155589</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002323130593479245</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01844488951840592</v>
+      </c>
+      <c r="F82">
+        <v>-2.737999573779704e-05</v>
+      </c>
+      <c r="G82">
+        <v>-0.005807299757094543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.005635799525917343</v>
+        <v>-0.03034255640012365</v>
       </c>
       <c r="C83">
-        <v>-0.0324507790297338</v>
+        <v>0.01939303991610126</v>
       </c>
       <c r="D83">
-        <v>-0.001242566966784142</v>
+        <v>0.004873336882776835</v>
       </c>
       <c r="E83">
-        <v>-0.01871046870562801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02593571354079148</v>
+      </c>
+      <c r="F83">
+        <v>-0.02309426872819939</v>
+      </c>
+      <c r="G83">
+        <v>0.02688718438836426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01324085305034674</v>
+        <v>-0.2435350104152178</v>
       </c>
       <c r="C85">
-        <v>-0.2118166732387627</v>
+        <v>0.1427230591227308</v>
       </c>
       <c r="D85">
-        <v>-0.02020677533274008</v>
+        <v>-0.02218012760711073</v>
       </c>
       <c r="E85">
-        <v>-0.1991069572232269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1199440671640547</v>
+      </c>
+      <c r="F85">
+        <v>0.2074925190936813</v>
+      </c>
+      <c r="G85">
+        <v>-0.0532194433524793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.003497364351392543</v>
+        <v>-0.009997695029450653</v>
       </c>
       <c r="C86">
-        <v>-0.006742203319099115</v>
+        <v>0.0232336881192671</v>
       </c>
       <c r="D86">
-        <v>-0.0143782357711128</v>
+        <v>0.00969125453629859</v>
       </c>
       <c r="E86">
-        <v>-0.02732730023813382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02190066836334393</v>
+      </c>
+      <c r="F86">
+        <v>-0.02378918685077284</v>
+      </c>
+      <c r="G86">
+        <v>0.05470212064499059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.002012789204542096</v>
+        <v>-0.01629476359724972</v>
       </c>
       <c r="C87">
-        <v>-0.02048340489855382</v>
+        <v>0.02753827496367136</v>
       </c>
       <c r="D87">
-        <v>-0.01403642038570194</v>
+        <v>0.01125828098262929</v>
       </c>
       <c r="E87">
-        <v>-0.03789577574180632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07759230604741908</v>
+      </c>
+      <c r="F87">
+        <v>-0.06013481024718993</v>
+      </c>
+      <c r="G87">
+        <v>0.04027526220756266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.003805236947068284</v>
+        <v>-0.08875809348291054</v>
       </c>
       <c r="C88">
-        <v>-0.05523348599702594</v>
+        <v>0.05169546989460354</v>
       </c>
       <c r="D88">
-        <v>0.004408595878223687</v>
+        <v>0.02082270253146138</v>
       </c>
       <c r="E88">
-        <v>-0.02069364881824459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.003596317026632</v>
+      </c>
+      <c r="F88">
+        <v>0.003709713271581817</v>
+      </c>
+      <c r="G88">
+        <v>0.02474799897363701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06395892137500388</v>
+        <v>-0.2117113092573382</v>
       </c>
       <c r="C89">
-        <v>-0.2568751639128926</v>
+        <v>-0.3751972025283224</v>
       </c>
       <c r="D89">
-        <v>0.1520133903901768</v>
+        <v>-0.009634693547547507</v>
       </c>
       <c r="E89">
-        <v>0.3327324442998491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.009506288094583528</v>
+      </c>
+      <c r="F89">
+        <v>0.03238937666503119</v>
+      </c>
+      <c r="G89">
+        <v>0.02895091506197341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04475204856775176</v>
+        <v>-0.1759940976212781</v>
       </c>
       <c r="C90">
-        <v>-0.1610544751443657</v>
+        <v>-0.3400571225700662</v>
       </c>
       <c r="D90">
-        <v>0.1270436681743273</v>
+        <v>-0.01204868899522884</v>
       </c>
       <c r="E90">
-        <v>0.2768264735712765</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007421570745510107</v>
+      </c>
+      <c r="F90">
+        <v>0.04479484088506498</v>
+      </c>
+      <c r="G90">
+        <v>0.004175981824524847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.007731518422155173</v>
+        <v>-0.2153024316576714</v>
       </c>
       <c r="C91">
-        <v>-0.2333178997596647</v>
+        <v>0.1306703442494658</v>
       </c>
       <c r="D91">
-        <v>-0.02350598563385062</v>
+        <v>-0.02655242389874516</v>
       </c>
       <c r="E91">
-        <v>-0.2016872555127887</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08651668259272212</v>
+      </c>
+      <c r="F91">
+        <v>0.1958407985062123</v>
+      </c>
+      <c r="G91">
+        <v>-0.01175073074306381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01102305802661297</v>
+        <v>-0.2065163408152897</v>
       </c>
       <c r="C92">
-        <v>-0.3157558706340562</v>
+        <v>-0.2748485466848554</v>
       </c>
       <c r="D92">
-        <v>0.1153129278486865</v>
+        <v>-0.05582673705755807</v>
       </c>
       <c r="E92">
-        <v>0.2365687754491415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.004714554787021893</v>
+      </c>
+      <c r="F92">
+        <v>0.1381382007892156</v>
+      </c>
+      <c r="G92">
+        <v>0.06150307980441249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04412206164260474</v>
+        <v>-0.2002300085681775</v>
       </c>
       <c r="C93">
-        <v>-0.2318000823763471</v>
+        <v>-0.3361283680001933</v>
       </c>
       <c r="D93">
-        <v>0.162994591865305</v>
+        <v>-0.01885507739596378</v>
       </c>
       <c r="E93">
-        <v>0.31601188272884</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01290357651127521</v>
+      </c>
+      <c r="F93">
+        <v>0.01715823846950152</v>
+      </c>
+      <c r="G93">
+        <v>0.0006973459514934745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02507392531923367</v>
+        <v>-0.2780414448771852</v>
       </c>
       <c r="C94">
-        <v>-0.2844950797266176</v>
+        <v>0.1467644007565271</v>
       </c>
       <c r="D94">
-        <v>0.0178492789128327</v>
+        <v>-0.01441790409826661</v>
       </c>
       <c r="E94">
-        <v>-0.1924333291294033</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.09928644826243388</v>
+      </c>
+      <c r="F94">
+        <v>0.3939060238378952</v>
+      </c>
+      <c r="G94">
+        <v>-0.1226956295694632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.01181190098163158</v>
+        <v>-0.08343996282748006</v>
       </c>
       <c r="C95">
-        <v>-0.08809652319872635</v>
+        <v>0.07450997455586519</v>
       </c>
       <c r="D95">
-        <v>0.06833105971588591</v>
+        <v>-0.00823264722014409</v>
       </c>
       <c r="E95">
-        <v>-0.06674673934029987</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07919924469969697</v>
+      </c>
+      <c r="F95">
+        <v>-0.1548516040771518</v>
+      </c>
+      <c r="G95">
+        <v>-0.06776695313841181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01478093587681484</v>
+        <v>-0.2147236843509253</v>
       </c>
       <c r="C98">
-        <v>-0.2084448911382661</v>
+        <v>0.0442604043893839</v>
       </c>
       <c r="D98">
-        <v>0.03977058083382117</v>
+        <v>-0.01857351629620954</v>
       </c>
       <c r="E98">
-        <v>-0.0865470863178808</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06544518368502364</v>
+      </c>
+      <c r="F98">
+        <v>-0.239659020756806</v>
+      </c>
+      <c r="G98">
+        <v>-0.03643345000579173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007893950787349464</v>
+        <v>-0.01363386961763736</v>
       </c>
       <c r="C101">
-        <v>-0.02758541957135192</v>
+        <v>0.0205202979385216</v>
       </c>
       <c r="D101">
-        <v>-0.006923789150889078</v>
+        <v>0.008357562491389251</v>
       </c>
       <c r="E101">
-        <v>-0.02118017248468166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03540518988103471</v>
+      </c>
+      <c r="F101">
+        <v>0.02558356890888873</v>
+      </c>
+      <c r="G101">
+        <v>0.03814681649615119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02247640864059689</v>
+        <v>-0.1274386426728758</v>
       </c>
       <c r="C102">
-        <v>-0.1219816046332027</v>
+        <v>0.07652257332526322</v>
       </c>
       <c r="D102">
-        <v>-0.008495489883816877</v>
+        <v>-0.001174193981588159</v>
       </c>
       <c r="E102">
-        <v>-0.09251011101635555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04403641985314296</v>
+      </c>
+      <c r="F102">
+        <v>0.06267572903090474</v>
+      </c>
+      <c r="G102">
+        <v>-0.01399504306127247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002639035332966889</v>
+        <v>-0.005726627727573843</v>
       </c>
       <c r="C103">
-        <v>-0.02778761506116863</v>
+        <v>0.005460491964119634</v>
       </c>
       <c r="D103">
-        <v>-0.01841710832515793</v>
+        <v>0.0003022932135318376</v>
       </c>
       <c r="E103">
-        <v>-0.02438973095764756</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001820482054160963</v>
+      </c>
+      <c r="F103">
+        <v>0.009462225107109437</v>
+      </c>
+      <c r="G103">
+        <v>0.01404894810862213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9844211520302256</v>
+        <v>-0.04271651579444784</v>
       </c>
       <c r="C104">
-        <v>0.1153084081162772</v>
+        <v>-0.04605689600836706</v>
       </c>
       <c r="D104">
-        <v>-0.02410658431914837</v>
+        <v>0.9858182692359804</v>
       </c>
       <c r="E104">
-        <v>-0.03040397956528878</v>
+        <v>-0.0449422741090087</v>
+      </c>
+      <c r="F104">
+        <v>0.03778733704621225</v>
+      </c>
+      <c r="G104">
+        <v>-0.001667411981236703</v>
       </c>
     </row>
   </sheetData>
